--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3877.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3877.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.740371612681582</v>
+        <v>2.389927864074707</v>
       </c>
       <c r="B1">
-        <v>2.646714498899341</v>
+        <v>2.404414653778076</v>
       </c>
       <c r="C1">
-        <v>2.802051265533673</v>
+        <v>2.660238742828369</v>
       </c>
       <c r="D1">
-        <v>3.189980644478208</v>
+        <v>3.934455156326294</v>
       </c>
       <c r="E1">
-        <v>3.037772473946802</v>
+        <v>4.955169200897217</v>
       </c>
     </row>
   </sheetData>
